--- a/src/Python数据分析与挖掘实战/环境数据预测蔬菜价格/November.xlsx
+++ b/src/Python数据分析与挖掘实战/环境数据预测蔬菜价格/November.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19440" windowHeight="8970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>2016-11-01</t>
   </si>
@@ -110,13 +110,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,348 +122,24 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -492,251 +162,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -744,57 +172,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1083,21 +464,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.25" customWidth="1"/>
     <col min="2" max="7" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:8">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -1134,7 +514,7 @@
         <v>19.2983333333333</v>
       </c>
       <c r="D2">
-        <v>76.225</v>
+        <v>76.224999999999994</v>
       </c>
       <c r="E2">
         <v>255</v>
@@ -1160,7 +540,7 @@
         <v>17.4791666666667</v>
       </c>
       <c r="D3">
-        <v>77.4083333333333</v>
+        <v>77.408333333333303</v>
       </c>
       <c r="E3">
         <v>255</v>
@@ -1169,7 +549,7 @@
         <v>12.9583333333333</v>
       </c>
       <c r="G3">
-        <v>22.1916666666667</v>
+        <v>22.191666666666698</v>
       </c>
       <c r="H3">
         <v>210</v>
@@ -1186,7 +566,7 @@
         <v>16.62875</v>
       </c>
       <c r="D4">
-        <v>80.0958333333333</v>
+        <v>80.095833333333303</v>
       </c>
       <c r="E4">
         <v>255</v>
@@ -1195,7 +575,7 @@
         <v>12.9166666666667</v>
       </c>
       <c r="G4">
-        <v>21.5958333333333</v>
+        <v>21.595833333333299</v>
       </c>
       <c r="H4">
         <v>210</v>
@@ -1209,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>17.47375</v>
+        <v>17.473749999999999</v>
       </c>
       <c r="D5">
         <v>85.0625</v>
@@ -1221,7 +601,7 @@
         <v>15.125</v>
       </c>
       <c r="G5">
-        <v>21.025</v>
+        <v>21.024999999999999</v>
       </c>
       <c r="H5">
         <v>209.208333333333</v>
@@ -1232,13 +612,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0208333333333333</v>
+        <v>0.02</v>
       </c>
       <c r="C6">
-        <v>19.04375</v>
+        <v>19.043749999999999</v>
       </c>
       <c r="D6">
-        <v>88.475</v>
+        <v>88.474999999999994</v>
       </c>
       <c r="E6">
         <v>255</v>
@@ -1247,7 +627,7 @@
         <v>15.6666666666667</v>
       </c>
       <c r="G6">
-        <v>21.1333333333333</v>
+        <v>21.133333333333301</v>
       </c>
       <c r="H6">
         <v>209</v>
@@ -1261,10 +641,10 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>19.795</v>
+        <v>19.795000000000002</v>
       </c>
       <c r="D7">
-        <v>88.775</v>
+        <v>88.775000000000006</v>
       </c>
       <c r="E7">
         <v>255</v>
@@ -1273,7 +653,7 @@
         <v>14.2916666666667</v>
       </c>
       <c r="G7">
-        <v>21.4875</v>
+        <v>21.487500000000001</v>
       </c>
       <c r="H7">
         <v>210</v>
@@ -1287,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>21.37625</v>
+        <v>21.376249999999999</v>
       </c>
       <c r="D8">
         <v>86.0208333333333</v>
@@ -1299,7 +679,7 @@
         <v>16.5833333333333</v>
       </c>
       <c r="G8">
-        <v>21.6833333333333</v>
+        <v>21.683333333333302</v>
       </c>
       <c r="H8">
         <v>209.5</v>
@@ -1313,10 +693,10 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>17.1983333333333</v>
+        <v>17.198333333333299</v>
       </c>
       <c r="D9">
-        <v>83.475</v>
+        <v>83.474999999999994</v>
       </c>
       <c r="E9">
         <v>255</v>
@@ -1336,10 +716,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.291666666666667</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C10">
-        <v>12.6891666666667</v>
+        <v>12.689166666666701</v>
       </c>
       <c r="D10">
         <v>95.05</v>
@@ -1351,7 +731,7 @@
         <v>15.6666666666667</v>
       </c>
       <c r="G10">
-        <v>20.3208333333333</v>
+        <v>20.320833333333301</v>
       </c>
       <c r="H10">
         <v>208.75</v>
@@ -1362,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.208333333333333</v>
+        <v>0.21</v>
       </c>
       <c r="C11">
-        <v>11.6129166666667</v>
+        <v>11.612916666666701</v>
       </c>
       <c r="D11">
-        <v>93.9875</v>
+        <v>93.987499999999997</v>
       </c>
       <c r="E11">
         <v>254.416666666667</v>
@@ -1377,7 +757,7 @@
         <v>18.5416666666667</v>
       </c>
       <c r="G11">
-        <v>19.2875</v>
+        <v>19.287500000000001</v>
       </c>
       <c r="H11">
         <v>208.5</v>
@@ -1394,7 +774,7 @@
         <v>14.0529166666667</v>
       </c>
       <c r="D12">
-        <v>96.2166666666667</v>
+        <v>96.216666666666697</v>
       </c>
       <c r="E12">
         <v>255</v>
@@ -1403,7 +783,7 @@
         <v>15.125</v>
       </c>
       <c r="G12">
-        <v>18.85</v>
+        <v>18.850000000000001</v>
       </c>
       <c r="H12">
         <v>210</v>
@@ -1417,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>20.9841666666667</v>
+        <v>20.984166666666699</v>
       </c>
       <c r="D13">
         <v>90.6666666666667</v>
@@ -1446,7 +826,7 @@
         <v>22.6504166666667</v>
       </c>
       <c r="D14">
-        <v>89.1708333333333</v>
+        <v>89.170833333333306</v>
       </c>
       <c r="E14">
         <v>255</v>
@@ -1455,7 +835,7 @@
         <v>9.25</v>
       </c>
       <c r="G14">
-        <v>20.6916666666667</v>
+        <v>20.691666666666698</v>
       </c>
       <c r="H14">
         <v>210</v>
@@ -1469,10 +849,10 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>23.0779166666667</v>
+        <v>23.077916666666699</v>
       </c>
       <c r="D15">
-        <v>87.3208333333333</v>
+        <v>87.320833333333297</v>
       </c>
       <c r="E15">
         <v>255</v>
@@ -1495,22 +875,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>-43541823.26625</v>
+        <v>-43541823.266249999</v>
       </c>
       <c r="D16">
         <v>-137723819.908333</v>
       </c>
       <c r="E16">
-        <v>-756922906.079167</v>
+        <v>-756922906.07916701</v>
       </c>
       <c r="F16">
         <v>123867495.583333</v>
       </c>
       <c r="G16">
-        <v>6975508.90416667</v>
+        <v>6975508.9041666696</v>
       </c>
       <c r="H16">
-        <v>537480458.954167</v>
+        <v>537480458.95416701</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1518,13 +898,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.0208333333333333</v>
+        <v>0.02</v>
       </c>
       <c r="C17">
         <v>22.3304166666667</v>
       </c>
       <c r="D17">
-        <v>88.6625</v>
+        <v>88.662499999999994</v>
       </c>
       <c r="E17">
         <v>254.708333333333</v>
@@ -1533,7 +913,7 @@
         <v>17.125</v>
       </c>
       <c r="G17">
-        <v>22.1208333333333</v>
+        <v>22.120833333333302</v>
       </c>
       <c r="H17">
         <v>209.5</v>
@@ -1550,7 +930,7 @@
         <v>20.9433333333333</v>
       </c>
       <c r="D18">
-        <v>89.6708333333333</v>
+        <v>89.670833333333306</v>
       </c>
       <c r="E18">
         <v>254.708333333333</v>
@@ -1570,7 +950,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.0208333333333333</v>
+        <v>0.02</v>
       </c>
       <c r="C19">
         <v>21.9783333333333</v>
@@ -1596,13 +976,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.354166666666667</v>
+        <v>0.35</v>
       </c>
       <c r="C20">
-        <v>23.5175</v>
+        <v>23.517499999999998</v>
       </c>
       <c r="D20">
-        <v>93.5583333333333</v>
+        <v>93.558333333333294</v>
       </c>
       <c r="E20">
         <v>250.041666666667</v>
@@ -1611,7 +991,7 @@
         <v>17.0416666666667</v>
       </c>
       <c r="G20">
-        <v>22.5666666666667</v>
+        <v>22.566666666666698</v>
       </c>
       <c r="H20">
         <v>210</v>
@@ -1622,13 +1002,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.72916666666667</v>
+        <v>1.73</v>
       </c>
       <c r="C21">
-        <v>21.91125</v>
+        <v>21.911249999999999</v>
       </c>
       <c r="D21">
-        <v>96.0333333333333</v>
+        <v>96.033333333333303</v>
       </c>
       <c r="E21">
         <v>252.666666666667</v>
@@ -1637,7 +1017,7 @@
         <v>18</v>
       </c>
       <c r="G21">
-        <v>22.8791666666667</v>
+        <v>22.879166666666698</v>
       </c>
       <c r="H21">
         <v>210</v>
@@ -1648,10 +1028,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.291666666666667</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C22">
-        <v>21.6170833333333</v>
+        <v>21.617083333333301</v>
       </c>
       <c r="D22">
         <v>97.05</v>
@@ -1663,7 +1043,7 @@
         <v>17.5416666666667</v>
       </c>
       <c r="G22">
-        <v>22.7208333333333</v>
+        <v>22.720833333333299</v>
       </c>
       <c r="H22">
         <v>210</v>
@@ -1674,13 +1054,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.458333333333333</v>
+        <v>0.46</v>
       </c>
       <c r="C23">
-        <v>20.9179166666667</v>
+        <v>20.917916666666699</v>
       </c>
       <c r="D23">
-        <v>97.6375</v>
+        <v>97.637500000000003</v>
       </c>
       <c r="E23">
         <v>252.958333333333</v>
@@ -1689,7 +1069,7 @@
         <v>18.625</v>
       </c>
       <c r="G23">
-        <v>22.7333333333333</v>
+        <v>22.733333333333299</v>
       </c>
       <c r="H23">
         <v>210</v>
@@ -1703,7 +1083,7 @@
         <v>0.1875</v>
       </c>
       <c r="C24">
-        <v>11.54375</v>
+        <v>11.543749999999999</v>
       </c>
       <c r="D24">
         <v>90.9791666666667</v>
@@ -1715,7 +1095,7 @@
         <v>19.5</v>
       </c>
       <c r="G24">
-        <v>21.7333333333333</v>
+        <v>21.733333333333299</v>
       </c>
       <c r="H24">
         <v>208.708333333333</v>
@@ -1726,13 +1106,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.354166666666667</v>
+        <v>0.35416666666666702</v>
       </c>
       <c r="C25">
-        <v>10.4633333333333</v>
+        <v>10.463333333333299</v>
       </c>
       <c r="D25">
-        <v>87.9041666666667</v>
+        <v>87.904166666666697</v>
       </c>
       <c r="E25">
         <v>255</v>
@@ -1741,7 +1121,7 @@
         <v>11.0833333333333</v>
       </c>
       <c r="G25">
-        <v>19.5333333333333</v>
+        <v>19.533333333333299</v>
       </c>
       <c r="H25">
         <v>210</v>
@@ -1752,13 +1132,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="C26">
         <v>11.7045833333333</v>
       </c>
       <c r="D26">
-        <v>94.675</v>
+        <v>94.674999999999997</v>
       </c>
       <c r="E26">
         <v>255</v>
@@ -1767,7 +1147,7 @@
         <v>18.0833333333333</v>
       </c>
       <c r="G26">
-        <v>18.6833333333333</v>
+        <v>18.683333333333302</v>
       </c>
       <c r="H26">
         <v>209.5</v>
@@ -1781,10 +1161,10 @@
         <v>2.8125</v>
       </c>
       <c r="C27">
-        <v>8.97125</v>
+        <v>8.9712499999999995</v>
       </c>
       <c r="D27">
-        <v>96.7333333333333</v>
+        <v>96.733333333333306</v>
       </c>
       <c r="E27">
         <v>255</v>
@@ -1793,7 +1173,7 @@
         <v>14.375</v>
       </c>
       <c r="G27">
-        <v>17.9416666666667</v>
+        <v>17.941666666666698</v>
       </c>
       <c r="H27">
         <v>209.75</v>
@@ -1813,16 +1193,16 @@
         <v>-13291666585.375</v>
       </c>
       <c r="E28">
-        <v>20333333577.7083</v>
+        <v>20333333577.708302</v>
       </c>
       <c r="F28">
-        <v>-409818443.791667</v>
+        <v>-409818443.79166698</v>
       </c>
       <c r="G28">
         <v>1191925093.84167</v>
       </c>
       <c r="H28">
-        <v>-7833333132.33333</v>
+        <v>-7833333132.3333302</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1836,7 +1216,7 @@
         <v>11.2641666666667</v>
       </c>
       <c r="D29">
-        <v>83.9708333333333</v>
+        <v>83.970833333333303</v>
       </c>
       <c r="E29">
         <v>255</v>
@@ -1845,7 +1225,7 @@
         <v>15.9583333333333</v>
       </c>
       <c r="G29">
-        <v>16.5375</v>
+        <v>16.537500000000001</v>
       </c>
       <c r="H29">
         <v>209.458333333333</v>
@@ -1856,13 +1236,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.0208333333333333</v>
+        <v>2.0833333333333301E-2</v>
       </c>
       <c r="C30">
         <v>11.9304166666667</v>
       </c>
       <c r="D30">
-        <v>89.2208333333333</v>
+        <v>89.220833333333303</v>
       </c>
       <c r="E30">
         <v>255</v>
@@ -1871,7 +1251,7 @@
         <v>12.2083333333333</v>
       </c>
       <c r="G30">
-        <v>16.5041666666667</v>
+        <v>16.504166666666698</v>
       </c>
       <c r="H30">
         <v>209.75</v>
@@ -1888,7 +1268,7 @@
         <v>12.6358333333333</v>
       </c>
       <c r="D31">
-        <v>84.6583333333333</v>
+        <v>84.658333333333303</v>
       </c>
       <c r="E31">
         <v>255</v>
@@ -1897,14 +1277,14 @@
         <v>13.6666666666667</v>
       </c>
       <c r="G31">
-        <v>16.5875</v>
+        <v>16.587499999999999</v>
       </c>
       <c r="H31">
         <v>210</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>